--- a/biology/Zoologie/Chactopsoides_anduzei/Chactopsoides_anduzei.xlsx
+++ b/biology/Zoologie/Chactopsoides_anduzei/Chactopsoides_anduzei.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Chactopsoides anduzei est une espèce de scorpions de la famille des Chactidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre au Venezuela dans l'État d'Amazonas et en Colombie dans le département de Vichada[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre au Venezuela dans l'État d'Amazonas et en Colombie dans le département de Vichada.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le mâle décrit par Ochoa, Rojas-Runjaic, Pinto-da-Rocha et Prendini en 2013 mesure 28,69 mm et la femelle 31,64 mm, les mâles mesurent de 22,6 à 30,5 mm et les femelles de 25,8 à 35,52 mm[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mâle décrit par Ochoa, Rojas-Runjaic, Pinto-da-Rocha et Prendini en 2013 mesure 28,69 mm et la femelle 31,64 mm, les mâles mesurent de 22,6 à 30,5 mm et les femelles de 25,8 à 35,52 mm.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Chactopsis anduzei par González-Sponga en 1982. Elle est placée dans le genre Chactopsoides par Ochoa, Rojas-Runjaic, Pinto-da-Rocha et Prendini en 2013 qui dans le même temps place Chactopsis carolinae en synonymie[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Chactopsis anduzei par González-Sponga en 1982. Elle est placée dans le genre Chactopsoides par Ochoa, Rojas-Runjaic, Pinto-da-Rocha et Prendini en 2013 qui dans le même temps place Chactopsis carolinae en synonymie.
 </t>
         </is>
       </c>
@@ -604,9 +622,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Pablo José Anduze Díaz (1902–1989)[2].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Pablo José Anduze Díaz (1902–1989).
 </t>
         </is>
       </c>
@@ -635,7 +655,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>González-Sponga, 1982 : Tres nuevas especies Venezolanas del genero Chactopsis (Scorpionida: Chactidae). Boletin de la Academia de Ciencias Fisicas Matematicas y Naturales (Caracas), vol. 42, no 129/130, p. 127-146.</t>
         </is>
